--- a/ProgrammesUtilisesActuellement/ProgrammesUtilisesActuellement.xlsx
+++ b/ProgrammesUtilisesActuellement/ProgrammesUtilisesActuellement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Nom de Program</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>Jesus Martinez</t>
+  </si>
+  <si>
+    <t>upload\catalog\language\es-es\account</t>
+  </si>
+  <si>
+    <t>upload\catalog\language\fr-fr\account</t>
+  </si>
+  <si>
+    <t>upload\catalog\language\ru-ru\account</t>
+  </si>
+  <si>
+    <t>upload\catalog\model\account\</t>
+  </si>
+  <si>
+    <t>customer.php</t>
+  </si>
+  <si>
+    <t>upload\admin\model\customer\</t>
   </si>
 </sst>
 </file>
@@ -417,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,12 +484,67 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>

--- a/ProgrammesUtilisesActuellement/ProgrammesUtilisesActuellement.xlsx
+++ b/ProgrammesUtilisesActuellement/ProgrammesUtilisesActuellement.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Mtz Reynoso\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proget2017v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="5355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12010" windowHeight="4330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Marina" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>Nom de Program</t>
   </si>
@@ -69,13 +70,121 @@
   </si>
   <si>
     <t>upload\admin\model\customer\</t>
+  </si>
+  <si>
+    <t>Liew</t>
+  </si>
+  <si>
+    <t>Nom de Page</t>
+  </si>
+  <si>
+    <t>Nom de Module</t>
+  </si>
+  <si>
+    <t>Nom de fichie</t>
+  </si>
+  <si>
+    <t>upload/admin/controller/extension/module</t>
+  </si>
+  <si>
+    <t>Trois_artistes</t>
+  </si>
+  <si>
+    <t>trois_artistes.php</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>menu.php</t>
+  </si>
+  <si>
+    <t>Exposition</t>
+  </si>
+  <si>
+    <t>exposition.php</t>
+  </si>
+  <si>
+    <t>upload/admin/language/en-gb/exposition/module/</t>
+  </si>
+  <si>
+    <t>upload/admin/view/template/extension/module/</t>
+  </si>
+  <si>
+    <t>trois_artistes.tpl</t>
+  </si>
+  <si>
+    <t>menu.tpl</t>
+  </si>
+  <si>
+    <t>exposition.tpl</t>
+  </si>
+  <si>
+    <t>upload/catalog/controller/extension/module</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/en-gb/extension/module/</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/fr-fr/extension/module/</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/es-es/extension/module/</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/ru-ru/extension/module/</t>
+  </si>
+  <si>
+    <t>upload/catalog/view/template/extension/module/</t>
+  </si>
+  <si>
+    <t>upload/catalog/controller/common</t>
+  </si>
+  <si>
+    <t>Boutique</t>
+  </si>
+  <si>
+    <t>boutique.php</t>
+  </si>
+  <si>
+    <t>Artistes</t>
+  </si>
+  <si>
+    <t>artistes.php</t>
+  </si>
+  <si>
+    <t>Nouvelles</t>
+  </si>
+  <si>
+    <t>nouvelles.php</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>videos.php</t>
+  </si>
+  <si>
+    <t>Contactes</t>
+  </si>
+  <si>
+    <t>contactes.php</t>
+  </si>
+  <si>
+    <t>upload/catalog/view/theme/ArtsBoutiqueLvovna/template/common/</t>
+  </si>
+  <si>
+    <t>Utilisé/Creé Par</t>
+  </si>
+  <si>
+    <t>Marina Tyurina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +200,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +223,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -114,16 +238,379 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,19 +924,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -471,7 +958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -482,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -493,7 +980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -504,7 +991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -515,7 +1002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -526,7 +1013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -537,7 +1024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -552,4 +1039,579 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="60.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="10"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="33"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="34"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="6"/>
+      <c r="B40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="26"/>
+      <c r="B41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="35"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="6"/>
+      <c r="B44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="6"/>
+      <c r="B45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="6"/>
+      <c r="B46" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="6"/>
+      <c r="B47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="26"/>
+      <c r="B48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C16" r:id="rId2" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C22" r:id="rId3" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C33" r:id="rId4" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>